--- a/OYM/_DocumentosComunes/Algoritmo.xlsx
+++ b/OYM/_DocumentosComunes/Algoritmo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55B04E99-3A3D-411B-ACF2-12ACA9491BBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -72,12 +71,234 @@
   </si>
   <si>
     <t>Pract. 40</t>
+  </si>
+  <si>
+    <t>08-EIEN-1-034</t>
+  </si>
+  <si>
+    <t>MENDEZ BAUTISTA LEONEL</t>
+  </si>
+  <si>
+    <t>12-MIEN-1-031</t>
+  </si>
+  <si>
+    <t>ETIENNE  EDWOOD </t>
+  </si>
+  <si>
+    <t>13-MIEN-1-006</t>
+  </si>
+  <si>
+    <t>PEDRO  LUIS LOPEZ VELOZ</t>
+  </si>
+  <si>
+    <t>15-SIEN-1-001</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE CASTILLO CEDANO</t>
+  </si>
+  <si>
+    <t>15-SIEN-1-009</t>
+  </si>
+  <si>
+    <t>HECTOR ANIBAL SUERO ROMERO</t>
+  </si>
+  <si>
+    <t>15-SIEN-1-021</t>
+  </si>
+  <si>
+    <t>OSIAS DANIEL LORENZO LINARES</t>
+  </si>
+  <si>
+    <t>15-SIEN-1-044</t>
+  </si>
+  <si>
+    <t>CHARLES FRANCISCO POLANCO PATRICIO</t>
+  </si>
+  <si>
+    <t>16-MIEN-1-020</t>
+  </si>
+  <si>
+    <t>LUIS  ALBERTO CABRERA ARIAS</t>
+  </si>
+  <si>
+    <t>16-MIEN-1-022</t>
+  </si>
+  <si>
+    <t>JOSE  ANTONIO NUÑEZ QUEVEDO</t>
+  </si>
+  <si>
+    <t>16-MIEN-1-030</t>
+  </si>
+  <si>
+    <t>EDWARD LEONARDO ABREU PILAR</t>
+  </si>
+  <si>
+    <t>16-SIEN-1-024</t>
+  </si>
+  <si>
+    <t>JONATAN ISAAC MATEO ROSARIO</t>
+  </si>
+  <si>
+    <t>16-SIEN-1-033</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL MARTINEZ GALVEZ</t>
+  </si>
+  <si>
+    <t>16-SIEN-1-034</t>
+  </si>
+  <si>
+    <t>SCARLETT MASSIEL RODRIGUEZ BARREIRO</t>
+  </si>
+  <si>
+    <t>17-EIEN-1-002</t>
+  </si>
+  <si>
+    <t>JOSE  RAMON AYBAR MANCEBO</t>
+  </si>
+  <si>
+    <t>17-EIEN-1-051</t>
+  </si>
+  <si>
+    <t>LENNI   PEREZ  MENDEZ</t>
+  </si>
+  <si>
+    <t>17-EIEN-1-059</t>
+  </si>
+  <si>
+    <t>LUIS  ALBERTO JIMENEZ  MONTAS</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-001</t>
+  </si>
+  <si>
+    <t>GREGORIO  ALMANZAR DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-003</t>
+  </si>
+  <si>
+    <t>GABRIEL  MARTINEZ AGUERO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-004</t>
+  </si>
+  <si>
+    <t>ERIC ALEXANDER SANTOS CRUZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-005</t>
+  </si>
+  <si>
+    <t>CARLOS  MARTE HERNANDEZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-006</t>
+  </si>
+  <si>
+    <t>MARCOS  RODRIGUEZ ASENCIO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-008</t>
+  </si>
+  <si>
+    <t>ALEXANDER   FELIZ  JIMENEZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-009</t>
+  </si>
+  <si>
+    <t>ESTEBAN  VALDEZ ROSARIO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-010</t>
+  </si>
+  <si>
+    <t>FELIX RAMON GONZALEZ MARTE</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-011</t>
+  </si>
+  <si>
+    <t>ANNIEL RENE MOLANO PAULINO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-015</t>
+  </si>
+  <si>
+    <t>RONY  VARGAS MENDEZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-018</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS FERNANDEZ PAULINO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-020</t>
+  </si>
+  <si>
+    <t>LUIS GUSTABO FIGUEREO  ROSARIO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-023</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS PEREZ VOLQUEZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-030</t>
+  </si>
+  <si>
+    <t>FELIX MANUEL PEREZ CUELLO</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-032</t>
+  </si>
+  <si>
+    <t>JOSE  MANAURY MOTA LOPEZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-033</t>
+  </si>
+  <si>
+    <t>VICTOR JOSE BASIEL BONET</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-034</t>
+  </si>
+  <si>
+    <t>JOEL   VIZCAINO RUIZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-037</t>
+  </si>
+  <si>
+    <t>DOMINGO ANTONIO CABA DIAZ</t>
+  </si>
+  <si>
+    <t>17-MIEN-1-039</t>
+  </si>
+  <si>
+    <t>FELIX RAMON PEGUERO DE LA ROSA</t>
+  </si>
+  <si>
+    <t>17-SIEN-1-016</t>
+  </si>
+  <si>
+    <t>FRANK LUIS LAIRAC RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>18-EIEN-1-027</t>
+  </si>
+  <si>
+    <t>SAMIR STEPHAN GARCIA CORCINO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -612,15 +833,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,9 +958,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
         <v/>
@@ -765,9 +992,15 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -793,9 +1026,15 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -821,9 +1060,15 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -849,9 +1094,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -877,9 +1128,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -905,9 +1162,15 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -933,9 +1196,15 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -961,9 +1230,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -989,9 +1264,15 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1017,9 +1298,15 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1045,9 +1332,15 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1073,9 +1366,15 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1095,15 +1394,24 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1129,9 +1437,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1157,9 +1471,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1185,9 +1505,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1213,9 +1539,15 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1235,15 +1567,24 @@
       <c r="K20">
         <v>1</v>
       </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1263,15 +1604,24 @@
       <c r="K21">
         <v>1</v>
       </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1297,9 +1647,15 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1325,9 +1681,15 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1347,15 +1709,24 @@
       <c r="K24">
         <v>1</v>
       </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1375,15 +1746,24 @@
       <c r="K25">
         <v>1</v>
       </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1403,15 +1783,24 @@
       <c r="K26">
         <v>1</v>
       </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1437,9 +1826,15 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1465,9 +1860,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1493,9 +1894,15 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1521,9 +1928,15 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1549,9 +1962,15 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1577,9 +1996,15 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1599,15 +2024,24 @@
       <c r="K33">
         <v>1</v>
       </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1627,15 +2061,24 @@
       <c r="K34">
         <v>1</v>
       </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1661,9 +2104,15 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1689,9 +2138,15 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1711,15 +2166,24 @@
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1745,9 +2209,15 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2537,7 +3007,7 @@
         <v/>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E130" si="6">IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" ref="E67:E121" si="6">IF((N67)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F67" s="2" t="str">
@@ -2545,7 +3015,7 @@
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" ref="G67:G130" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f t="shared" ref="G67:G108" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v/>
       </c>
       <c r="K67">
@@ -3721,7 +4191,7 @@
         <v/>
       </c>
       <c r="G109" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G67:G130" si="10">IF((N109)&gt;=51,IF((N109-50)&gt;50,50,IF((N109-50)&lt;0,0,(N109-50))), "" )</f>
         <v/>
       </c>
       <c r="K109">
@@ -3749,7 +4219,7 @@
         <v/>
       </c>
       <c r="G110" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K110">
@@ -3777,7 +4247,7 @@
         <v/>
       </c>
       <c r="G111" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K111">
@@ -3805,7 +4275,7 @@
         <v/>
       </c>
       <c r="G112" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K112">
@@ -3833,7 +4303,7 @@
         <v/>
       </c>
       <c r="G113" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K113">
@@ -3861,7 +4331,7 @@
         <v/>
       </c>
       <c r="G114" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K114">
@@ -3889,7 +4359,7 @@
         <v/>
       </c>
       <c r="G115" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K115">
@@ -3917,7 +4387,7 @@
         <v/>
       </c>
       <c r="G116" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K116">
@@ -3945,7 +4415,7 @@
         <v/>
       </c>
       <c r="G117" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K117">
@@ -3973,7 +4443,7 @@
         <v/>
       </c>
       <c r="G118" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K118">
@@ -4001,7 +4471,7 @@
         <v/>
       </c>
       <c r="G119" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K119">
@@ -4029,7 +4499,7 @@
         <v/>
       </c>
       <c r="G120" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K120">
@@ -4054,7 +4524,7 @@
         <v/>
       </c>
       <c r="G121" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N121">
@@ -4068,7 +4538,7 @@
         <v/>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E67:E130" si="11">IF((N122)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F122" s="2" t="str">
@@ -4076,7 +4546,7 @@
         <v/>
       </c>
       <c r="G122" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N122">
@@ -4090,7 +4560,7 @@
         <v/>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F123" s="2" t="str">
@@ -4098,7 +4568,7 @@
         <v/>
       </c>
       <c r="G123" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N123">
@@ -4112,7 +4582,7 @@
         <v/>
       </c>
       <c r="E124" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F124" s="2" t="str">
@@ -4120,7 +4590,7 @@
         <v/>
       </c>
       <c r="G124" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N124">
@@ -4134,7 +4604,7 @@
         <v/>
       </c>
       <c r="E125" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F125" s="2" t="str">
@@ -4142,7 +4612,7 @@
         <v/>
       </c>
       <c r="G125" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N125">
@@ -4156,7 +4626,7 @@
         <v/>
       </c>
       <c r="E126" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F126" s="2" t="str">
@@ -4164,7 +4634,7 @@
         <v/>
       </c>
       <c r="G126" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N126">
@@ -4178,7 +4648,7 @@
         <v/>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F127" s="2" t="str">
@@ -4186,7 +4656,7 @@
         <v/>
       </c>
       <c r="G127" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N127">
@@ -4200,7 +4670,7 @@
         <v/>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F128" s="2" t="str">
@@ -4208,7 +4678,7 @@
         <v/>
       </c>
       <c r="G128" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N128">
@@ -4222,7 +4692,7 @@
         <v/>
       </c>
       <c r="E129" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F129" s="2" t="str">
@@ -4230,7 +4700,7 @@
         <v/>
       </c>
       <c r="G129" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N129">
@@ -4244,7 +4714,7 @@
         <v/>
       </c>
       <c r="E130" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F130" s="2" t="str">
@@ -4252,7 +4722,7 @@
         <v/>
       </c>
       <c r="G130" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N130">
@@ -4262,1306 +4732,1306 @@
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D131" s="6" t="str">
-        <f t="shared" ref="D131:D179" si="10">IF((N131)&gt;=50,10,"")</f>
+        <f t="shared" ref="D131:D143" si="12">IF((N131)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E131" s="2" t="str">
-        <f t="shared" ref="E131:E190" si="11">IF((N131)&gt;=50,20,"")</f>
+        <f t="shared" ref="E131:E190" si="13">IF((N131)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F190" si="12">IF((N131)&gt;=50,20,"")</f>
+        <f t="shared" ref="F131:F155" si="14">IF((N131)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G190" si="13">IF((N131)&gt;=51,IF((N131-50)&gt;50,50,IF((N131-50)&lt;0,0,(N131-50))), "" )</f>
+        <f t="shared" ref="G131:G190" si="15">IF((N131)&gt;=51,IF((N131-50)&gt;50,50,IF((N131-50)&lt;0,0,(N131-50))), "" )</f>
         <v/>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N185" si="14">IF((H131+J131+L131+M131+O131)&lt;70,IF((H131+J131+L131+M131+O131)&gt;64,70,(H131+J131+L131+M131+O131)),(H131+J131+L131+M131+O131))</f>
+        <f t="shared" ref="N131:N185" si="16">IF((H131+J131+L131+M131+O131)&lt;70,IF((H131+J131+L131+M131+O131)&gt;64,70,(H131+J131+L131+M131+O131)),(H131+J131+L131+M131+O131))</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D132" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E132" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F132" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G132" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D133" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E133" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F133" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G133" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D134" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E134" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F134" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G134" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D135" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E135" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F135" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G135" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D136" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E136" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F136" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G136" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D137" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E137" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F137" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G137" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D138" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E138" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F138" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G138" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D139" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E139" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F139" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G139" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D140" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E140" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F140" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G140" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D141" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E141" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F141" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G141" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D142" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E142" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F142" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G142" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D143" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E143" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F143" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G143" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D144" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D131:D179" si="17">IF((N144)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E144" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F144" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G144" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D145" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E145" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F145" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G145" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D146" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E146" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F146" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G146" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D147" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E147" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F147" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G147" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D148" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E148" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F148" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G148" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D149" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E149" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F149" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G149" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D150" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E150" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F150" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G150" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D151" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E151" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F151" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G151" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D152" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E152" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F152" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G152" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D153" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E153" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F153" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G153" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D154" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E154" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F154" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G154" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D155" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E155" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F155" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G155" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D156" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E156" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F156" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F131:F190" si="18">IF((N156)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G156" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D157" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E157" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F157" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G157" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D158" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E158" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F158" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G158" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D159" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E159" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F159" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G159" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D160" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E160" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F160" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G160" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D161" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E161" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F161" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G161" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D162" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E162" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F162" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G162" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D163" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E163" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F163" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G163" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D164" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E164" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F164" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G164" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D165" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E165" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F165" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G165" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D166" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E166" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F166" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G166" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D167" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E167" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F167" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G167" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D168" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E168" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F168" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G168" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D169" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E169" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F169" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G169" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D170" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E170" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F170" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G170" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D171" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E171" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F171" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G171" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D172" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E172" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F172" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G172" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D173" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E173" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F173" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G173" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D174" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E174" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F174" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G174" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D175" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E175" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F175" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G175" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D176" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E176" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F176" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G176" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D177" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E177" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F177" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G177" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D178" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E178" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F178" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G178" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D179" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E179" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F179" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G179" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D180" s="6" t="str">
-        <f t="shared" ref="D180:D189" si="15">IF((N180)&gt;=70,10,"")</f>
+        <f t="shared" ref="D180:D189" si="19">IF((N180)&gt;=70,10,"")</f>
         <v/>
       </c>
       <c r="E180" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F180" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G180" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D181" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F181" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G181" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F181" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G181" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="N181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D182" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F182" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G182" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F182" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G182" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="N182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D183" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F183" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G183" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F183" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G183" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="N183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D184" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F184" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G184" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G184" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="N184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D185" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F185" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G185" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F185" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G185" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="N185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D186" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F186" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G186" s="6" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F186" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G186" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D187" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F187" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G187" s="6" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F187" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G187" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D188" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F188" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G188" s="6" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F188" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G188" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D189" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F189" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G189" s="6" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F189" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G189" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D190" s="6" t="str">
-        <f t="shared" ref="D190" si="16">IF((N190)&gt;=70,10,"")</f>
+        <f t="shared" ref="D190" si="20">IF((N190)&gt;=70,10,"")</f>
         <v/>
       </c>
       <c r="E190" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F190" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G190" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/Algoritmo.xlsx
+++ b/OYM/_DocumentosComunes/Algoritmo.xlsx
@@ -840,8 +840,8 @@
   <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,12 +983,15 @@
         <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v/>
       </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,12 +1020,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1051,12 +1057,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1085,12 +1094,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1119,12 +1131,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,12 +1168,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1187,12 +1205,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1221,12 +1242,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,12 +1279,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1289,12 +1316,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1323,12 +1353,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,12 +1390,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1375,21 +1411,24 @@
       <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J15">
+        <v>20</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1399,7 +1438,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,12 +1467,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,12 +1504,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,12 +1541,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,12 +1578,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1548,21 +1599,24 @@
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J20">
+        <v>20</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1572,7 +1626,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1585,21 +1639,24 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J21">
+        <v>20</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1609,7 +1666,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1638,12 +1695,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,12 +1732,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,21 +1753,24 @@
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J24">
+        <v>20</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1714,7 +1780,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,21 +1793,24 @@
       <c r="C25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G25" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J25">
+        <v>20</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1751,7 +1820,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,21 +1833,24 @@
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J26">
+        <v>20</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1788,7 +1860,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1817,12 +1889,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,12 +1926,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,12 +1963,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,12 +2000,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1953,12 +2037,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,12 +2074,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,21 +2095,24 @@
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J33">
+        <v>20</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2029,7 +2122,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2042,21 +2135,24 @@
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J34">
+        <v>20</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2066,7 +2162,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2095,12 +2191,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2129,12 +2228,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,21 +2249,24 @@
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="J37">
+        <v>20</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2171,7 +2276,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2200,12 +2305,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2234,12 +2342,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2262,12 +2373,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/Algoritmo.xlsx
+++ b/OYM/_DocumentosComunes/Algoritmo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A13FACD-CE5F-46EC-9ADF-05F2776A0B97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -299,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -834,18 +833,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H3:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -984,6 +983,9 @@
         <f t="shared" ref="G3:G39" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v/>
       </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
       <c r="J3">
         <v>20</v>
       </c>
@@ -992,7 +994,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N39" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1021,6 +1023,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
       <c r="J4">
         <v>20</v>
       </c>
@@ -1029,7 +1034,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1058,6 +1063,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
       <c r="J5">
         <v>20</v>
       </c>
@@ -1066,7 +1074,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,6 +1103,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
       <c r="J6">
         <v>20</v>
       </c>
@@ -1103,7 +1114,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,6 +1143,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
       <c r="J7">
         <v>20</v>
       </c>
@@ -1140,7 +1154,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1169,6 +1183,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
       <c r="J8">
         <v>20</v>
       </c>
@@ -1177,7 +1194,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1206,6 +1223,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
       <c r="J9">
         <v>20</v>
       </c>
@@ -1214,7 +1234,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1243,6 +1263,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
       <c r="J10">
         <v>20</v>
       </c>
@@ -1251,7 +1274,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1280,6 +1303,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
       <c r="J11">
         <v>20</v>
       </c>
@@ -1288,7 +1314,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1317,6 +1343,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
       <c r="J12">
         <v>20</v>
       </c>
@@ -1325,7 +1354,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,6 +1383,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
       <c r="J13">
         <v>20</v>
       </c>
@@ -1362,7 +1394,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,6 +1423,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
       <c r="J14">
         <v>20</v>
       </c>
@@ -1399,7 +1434,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,7 +1461,10 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
       </c>
       <c r="J15">
         <v>20</v>
@@ -1442,7 +1480,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1469,6 +1507,9 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
       <c r="J16">
@@ -1482,7 +1523,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1511,6 +1552,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
       <c r="J17">
         <v>20</v>
       </c>
@@ -1519,7 +1563,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1548,6 +1592,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
       <c r="J18">
         <v>20</v>
       </c>
@@ -1556,7 +1603,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,6 +1630,9 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H19">
         <v>10</v>
       </c>
       <c r="J19">
@@ -1596,7 +1646,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1623,7 +1673,10 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
       </c>
       <c r="J20">
         <v>20</v>
@@ -1639,7 +1692,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1664,9 +1717,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -1679,7 +1735,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,6 +1762,9 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H22">
         <v>10</v>
       </c>
       <c r="J22">
@@ -1719,7 +1778,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1744,9 +1803,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -1759,7 +1821,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,7 +1848,10 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
       </c>
       <c r="J24">
         <v>20</v>
@@ -1802,7 +1867,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,7 +1894,10 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -1845,7 +1913,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1872,7 +1940,10 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
       </c>
       <c r="J26">
         <v>20</v>
@@ -1888,7 +1959,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,9 +1984,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
       </c>
       <c r="J27">
         <v>20</v>
@@ -1928,7 +2002,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,6 +2029,9 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
       <c r="J28">
@@ -1968,7 +2045,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,6 +2072,9 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H29">
         <v>10</v>
       </c>
       <c r="J29">
@@ -2008,7 +2088,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,6 +2117,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
       <c r="J30">
         <v>20</v>
       </c>
@@ -2045,7 +2128,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,6 +2155,9 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H31">
         <v>10</v>
       </c>
       <c r="J31">
@@ -2085,7 +2171,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,6 +2200,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
       <c r="J32">
         <v>20</v>
       </c>
@@ -2122,7 +2211,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2149,7 +2238,10 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
       </c>
       <c r="J33">
         <v>20</v>
@@ -2165,7 +2257,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2192,7 +2284,10 @@
       </c>
       <c r="G34" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
       </c>
       <c r="J34">
         <v>20</v>
@@ -2208,7 +2303,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2237,6 +2332,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
       <c r="J35">
         <v>20</v>
       </c>
@@ -2245,7 +2343,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2270,9 +2368,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G36" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
       </c>
       <c r="J36">
         <v>20</v>
@@ -2285,7 +2386,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2312,7 +2413,10 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
       </c>
       <c r="J37">
         <v>20</v>
@@ -2328,7 +2432,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,6 +2461,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
       <c r="J38">
         <v>20</v>
       </c>
@@ -2365,7 +2472,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,6 +2499,9 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H39">
         <v>10</v>
       </c>
       <c r="J39">
@@ -2405,11 +2515,11 @@
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/Algoritmo.xlsx
+++ b/OYM/_DocumentosComunes/Algoritmo.xlsx
@@ -837,11 +837,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H3:H39"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2518,6 +2518,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
